--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H2">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J2">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.22522549928054</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N2">
-        <v>2.22522549928054</v>
+        <v>132.145981</v>
       </c>
       <c r="O2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q2">
-        <v>402.4868474143132</v>
+        <v>180.3383869082107</v>
       </c>
       <c r="R2">
-        <v>402.4868474143132</v>
+        <v>1623.045482173896</v>
       </c>
       <c r="S2">
-        <v>0.02523048929523057</v>
+        <v>0.005350010580340535</v>
       </c>
       <c r="T2">
-        <v>0.02523048929523057</v>
+        <v>0.005350010580340536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>180.874633849219</v>
+        <v>4.094072</v>
       </c>
       <c r="H3">
-        <v>180.874633849219</v>
+        <v>12.282216</v>
       </c>
       <c r="I3">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J3">
-        <v>0.8226037845311249</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.32504872347729</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N3">
-        <v>70.32504872347729</v>
+        <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q3">
-        <v>12720.01743828744</v>
+        <v>9.114717104421333</v>
       </c>
       <c r="R3">
-        <v>12720.01743828744</v>
+        <v>82.03245393979201</v>
       </c>
       <c r="S3">
-        <v>0.7973732952358944</v>
+        <v>0.0002704018472244901</v>
       </c>
       <c r="T3">
-        <v>0.7973732952358944</v>
+        <v>0.0002704018472244902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.2214361999187</v>
+        <v>4.094072</v>
       </c>
       <c r="H4">
-        <v>10.2214361999187</v>
+        <v>12.282216</v>
       </c>
       <c r="I4">
-        <v>0.04648629784321118</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="J4">
-        <v>0.04648629784321118</v>
+        <v>0.0147134235951136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.22522549928054</v>
+        <v>74.86619966666667</v>
       </c>
       <c r="N4">
-        <v>2.22522549928054</v>
+        <v>224.598599</v>
       </c>
       <c r="O4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107282</v>
       </c>
       <c r="P4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107284</v>
       </c>
       <c r="Q4">
-        <v>22.74500047132827</v>
+        <v>306.5076118017093</v>
       </c>
       <c r="R4">
-        <v>22.74500047132827</v>
+        <v>2758.568506215384</v>
       </c>
       <c r="S4">
-        <v>0.001425804332734214</v>
+        <v>0.009093011167548569</v>
       </c>
       <c r="T4">
-        <v>0.001425804332734214</v>
+        <v>0.009093011167548572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.2214361999187</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H5">
-        <v>10.2214361999187</v>
+        <v>543.064652</v>
       </c>
       <c r="I5">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J5">
-        <v>0.04648629784321118</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>70.32504872347729</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N5">
-        <v>70.32504872347729</v>
+        <v>132.145981</v>
       </c>
       <c r="O5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q5">
-        <v>718.8229987831971</v>
+        <v>7973.756798329292</v>
       </c>
       <c r="R5">
-        <v>718.8229987831971</v>
+        <v>71763.81118496362</v>
       </c>
       <c r="S5">
-        <v>0.04506049351047697</v>
+        <v>0.2365535367566367</v>
       </c>
       <c r="T5">
-        <v>0.04506049351047697</v>
+        <v>0.2365535367566367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.784554439255</v>
+        <v>181.0215506666667</v>
       </c>
       <c r="H6">
-        <v>28.784554439255</v>
+        <v>543.064652</v>
       </c>
       <c r="I6">
-        <v>0.1309099176256638</v>
+        <v>0.6505617768331834</v>
       </c>
       <c r="J6">
-        <v>0.1309099176256638</v>
+        <v>0.6505617768331835</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22522549928054</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N6">
-        <v>2.22522549928054</v>
+        <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q6">
-        <v>64.05212452365909</v>
+        <v>403.0120193612472</v>
       </c>
       <c r="R6">
-        <v>64.05212452365909</v>
+        <v>3627.108174251224</v>
       </c>
       <c r="S6">
-        <v>0.004015203111637099</v>
+        <v>0.01195596015109366</v>
       </c>
       <c r="T6">
-        <v>0.004015203111637099</v>
+        <v>0.01195596015109366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>181.0215506666667</v>
+      </c>
+      <c r="H7">
+        <v>543.064652</v>
+      </c>
+      <c r="I7">
+        <v>0.6505617768331834</v>
+      </c>
+      <c r="J7">
+        <v>0.6505617768331835</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N7">
+        <v>224.598599</v>
+      </c>
+      <c r="O7">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P7">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q7">
+        <v>13552.39555618028</v>
+      </c>
+      <c r="R7">
+        <v>121971.5600056226</v>
+      </c>
+      <c r="S7">
+        <v>0.402052279925453</v>
+      </c>
+      <c r="T7">
+        <v>0.4020522799254531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H8">
+        <v>189.168271</v>
+      </c>
+      <c r="I8">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J8">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>44.04866033333334</v>
+      </c>
+      <c r="N8">
+        <v>132.145981</v>
+      </c>
+      <c r="O8">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="P8">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="Q8">
+        <v>2777.536305040984</v>
+      </c>
+      <c r="R8">
+        <v>24997.82674536885</v>
+      </c>
+      <c r="S8">
+        <v>0.08239980890376179</v>
+      </c>
+      <c r="T8">
+        <v>0.08239980890376182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H9">
+        <v>189.168271</v>
+      </c>
+      <c r="I9">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J9">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.678962</v>
+      </c>
+      <c r="O9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q9">
+        <v>140.3830770683002</v>
+      </c>
+      <c r="R9">
+        <v>1263.447693614702</v>
+      </c>
+      <c r="S9">
+        <v>0.004164675976604137</v>
+      </c>
+      <c r="T9">
+        <v>0.004164675976604137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>63.05609033333334</v>
+      </c>
+      <c r="H10">
+        <v>189.168271</v>
+      </c>
+      <c r="I10">
+        <v>0.2266132513854375</v>
+      </c>
+      <c r="J10">
+        <v>0.2266132513854376</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N10">
+        <v>224.598599</v>
+      </c>
+      <c r="O10">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P10">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q10">
+        <v>4720.769849094704</v>
+      </c>
+      <c r="R10">
+        <v>42486.92864185233</v>
+      </c>
+      <c r="S10">
+        <v>0.1400487665050716</v>
+      </c>
+      <c r="T10">
+        <v>0.1400487665050716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.082493</v>
+      </c>
+      <c r="H11">
+        <v>90.247479</v>
+      </c>
+      <c r="I11">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J11">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>44.04866033333334</v>
+      </c>
+      <c r="N11">
+        <v>132.145981</v>
+      </c>
+      <c r="O11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="P11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="Q11">
+        <v>1325.093516136878</v>
+      </c>
+      <c r="R11">
+        <v>11925.8416452319</v>
+      </c>
+      <c r="S11">
+        <v>0.0393109002071825</v>
+      </c>
+      <c r="T11">
+        <v>0.03931090020718251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>28.784554439255</v>
-      </c>
-      <c r="H7">
-        <v>28.784554439255</v>
-      </c>
-      <c r="I7">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="J7">
-        <v>0.1309099176256638</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="N7">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="O7">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="P7">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="Q7">
-        <v>2024.275193424193</v>
-      </c>
-      <c r="R7">
-        <v>2024.275193424193</v>
-      </c>
-      <c r="S7">
-        <v>0.1268947145140267</v>
-      </c>
-      <c r="T7">
-        <v>0.1268947145140267</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.082493</v>
+      </c>
+      <c r="H12">
+        <v>90.247479</v>
+      </c>
+      <c r="I12">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J12">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.678962</v>
+      </c>
+      <c r="O12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q12">
+        <v>66.97327587075533</v>
+      </c>
+      <c r="R12">
+        <v>602.759482836798</v>
+      </c>
+      <c r="S12">
+        <v>0.0019868633664278</v>
+      </c>
+      <c r="T12">
+        <v>0.0019868633664278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.082493</v>
+      </c>
+      <c r="H13">
+        <v>90.247479</v>
+      </c>
+      <c r="I13">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="J13">
+        <v>0.1081115481862653</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N13">
+        <v>224.598599</v>
+      </c>
+      <c r="O13">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P13">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q13">
+        <v>2252.161927409103</v>
+      </c>
+      <c r="R13">
+        <v>20269.45734668192</v>
+      </c>
+      <c r="S13">
+        <v>0.066813784612655</v>
+      </c>
+      <c r="T13">
+        <v>0.06681378461265502</v>
       </c>
     </row>
   </sheetData>
